--- a/util/WAVZ_SMX_Version_0.6 060725.xlsx
+++ b/util/WAVZ_SMX_Version_0.6 060725.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\0728_script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\ETL_Framework\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F47A5A-8B53-473B-AAA6-E4DA77A1B13C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773CD90-FF8D-417B-B5AF-D20CA14F78D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{89CA18FD-F7B0-4007-99E4-E9B3AB60B5C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{89CA18FD-F7B0-4007-99E4-E9B3AB60B5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Log" sheetId="11" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="System" sheetId="6" r:id="rId3"/>
     <sheet name="Stream" sheetId="7" r:id="rId4"/>
     <sheet name="STG tables" sheetId="1" r:id="rId5"/>
-    <sheet name="BKEY" sheetId="3" r:id="rId6"/>
-    <sheet name="BMAP" sheetId="12" r:id="rId7"/>
-    <sheet name="BMAP Values" sheetId="5" r:id="rId8"/>
-    <sheet name="CORE tables" sheetId="9" r:id="rId9"/>
-    <sheet name="Table mapping" sheetId="8" r:id="rId10"/>
-    <sheet name="Column mapping" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
+    <sheet name="BKEY" sheetId="3" r:id="rId7"/>
+    <sheet name="BMAP" sheetId="12" r:id="rId8"/>
+    <sheet name="BMAP Values" sheetId="5" r:id="rId9"/>
+    <sheet name="CORE tables" sheetId="9" r:id="rId10"/>
+    <sheet name="Table mapping" sheetId="8" r:id="rId11"/>
+    <sheet name="Column mapping" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="207">
   <si>
     <t>Layer</t>
   </si>
@@ -73,15 +74,9 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CHAR(1)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Source System Alias</t>
   </si>
   <si>
@@ -136,9 +131,6 @@
     <t>VARCHAR(20)</t>
   </si>
   <si>
-    <t>CUSTOMER_NAME</t>
-  </si>
-  <si>
     <t>VARCHAR(100)</t>
   </si>
   <si>
@@ -148,45 +140,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>NATIONAL_ID</t>
-  </si>
-  <si>
-    <t>CUSTOMER_TYPE</t>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>ADDRESS_LINE1</t>
-  </si>
-  <si>
-    <t>ADDRESS_LINE2</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
     <t>SK_CIF_ID</t>
   </si>
   <si>
@@ -208,36 +161,6 @@
     <t>Mapper</t>
   </si>
   <si>
-    <t>GENDER_ID</t>
-  </si>
-  <si>
-    <t>BATCH_ID</t>
-  </si>
-  <si>
-    <t>MOBILE_NUMBER</t>
-  </si>
-  <si>
-    <t>LENGTH(REGEXP_REPLACE(MOBILE_NUMBER, '[^0-9]', '', 1, 0)) = 11</t>
-  </si>
-  <si>
-    <t>LENGTH(NATIONAL_ID) = 14</t>
-  </si>
-  <si>
-    <t>SK_MOBILE_NUMBER</t>
-  </si>
-  <si>
-    <t>LOCTR</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>REGEXP_REPLACE(MOBILE_NUMBER, '[^0-9]', '', 1, 0)</t>
-  </si>
-  <si>
-    <t>EMPLOYEES</t>
-  </si>
-  <si>
     <t>ERP</t>
   </si>
   <si>
@@ -250,30 +173,9 @@
     <t>EMP_ID</t>
   </si>
   <si>
-    <t>FULL_NAME</t>
-  </si>
-  <si>
-    <t>JOIN_DATE</t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>BRANCH_CODE</t>
-  </si>
-  <si>
     <t>SK_EMP_ID</t>
   </si>
   <si>
-    <t>EMP</t>
-  </si>
-  <si>
-    <t>GENDER_CD</t>
-  </si>
-  <si>
     <t>Reserved words</t>
   </si>
   <si>
@@ -325,9 +227,6 @@
     <t>BKEY_PRTY</t>
   </si>
   <si>
-    <t>BKEY_LOCTR</t>
-  </si>
-  <si>
     <t>Code set ID</t>
   </si>
   <si>
@@ -355,9 +254,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>JOB_POSITION</t>
-  </si>
-  <si>
     <t>Source system ID</t>
   </si>
   <si>
@@ -421,15 +317,6 @@
     <t>ERP_CORE</t>
   </si>
   <si>
-    <t>CUSTOMER_STATUS</t>
-  </si>
-  <si>
-    <t>EMP_STATUS</t>
-  </si>
-  <si>
-    <t>BM_STATUS</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -640,9 +527,6 @@
     <t>Update Table and Column Mapping</t>
   </si>
   <si>
-    <t>BM_CUST_GENDER</t>
-  </si>
-  <si>
     <t>BM_EMP_GENDER</t>
   </si>
   <si>
@@ -767,9 +651,6 @@
   </si>
   <si>
     <t>Filter Criteria</t>
-  </si>
-  <si>
-    <t>1 = 1</t>
   </si>
   <si>
     <t>Table</t>
@@ -2358,30 +2239,30 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2392,11 +2273,11 @@
         <v>45759</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2407,13 +2288,13 @@
         <v>45815</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2425,6 +2306,719 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2C4D46-D32D-4C79-BB09-DB2883545269}">
+  <sheetPr>
+    <tabColor rgb="FFEE0000"/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6">
+      <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6">
+      <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.6">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6">
+      <c r="A21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6">
+      <c r="A23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6">
+      <c r="A25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6">
+      <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.6">
+      <c r="A28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B08451-B8B6-4960-909C-88D1CCDFF7A0}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2435,21 +3029,21 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="29.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.19921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.69921875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="17.296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.8984375" style="22"/>
+    <col min="1" max="1" width="9.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2457,93 +3051,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="13" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="27.6">
+    <row r="3" spans="1:12" ht="28.8">
       <c r="A3" s="13" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
@@ -2552,26 +3146,26 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
@@ -2586,7 +3180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693CCFA-3DA9-4E44-8BC3-C0BBCF8A57F6}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2597,16 +3191,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2614,429 +3208,429 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
-      <c r="A20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3058,19 +3652,19 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -3078,100 +3672,100 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -3194,34 +3788,34 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3229,19 +3823,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3249,19 +3843,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3283,31 +3877,31 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3315,16 +3909,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3332,16 +3926,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3349,16 +3943,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3366,16 +3960,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3383,16 +3977,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3400,16 +3994,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3417,16 +4011,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3434,16 +4028,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3451,16 +4045,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3468,16 +4062,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3495,38 +4089,38 @@
   </sheetPr>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.8984375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="55.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="55.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3534,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3546,22 +4140,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
@@ -3570,191 +4164,92 @@
         <v>5</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="V1" s="25" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -3765,48 +4260,18 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -3817,102 +4282,42 @@
       <c r="W5" s="4"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="V6" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -3923,48 +4328,18 @@
       <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -3975,48 +4350,18 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -4027,48 +4372,18 @@
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -4079,48 +4394,16 @@
       <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -4131,48 +4414,18 @@
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -4183,48 +4436,18 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -4235,48 +4458,18 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -4287,48 +4480,20 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -4339,48 +4504,20 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -4391,48 +4528,18 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -4443,48 +4550,18 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -4499,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
@@ -4508,43 +4585,43 @@
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -4553,224 +4630,90 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
-      <c r="A20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="T20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>189</v>
-      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -4781,48 +4724,19 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -4833,48 +4747,20 @@
       <c r="W24" s="6"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -4885,48 +4771,19 @@
       <c r="W25" s="6"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -4937,48 +4794,18 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -4989,48 +4816,17 @@
       <c r="W27" s="6"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -5041,48 +4837,17 @@
       <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -5093,48 +4858,17 @@
       <c r="W29" s="6"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -5145,48 +4879,17 @@
       <c r="W30" s="6"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -5197,48 +4900,18 @@
       <c r="W31" s="6"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -5249,48 +4922,20 @@
       <c r="W32" s="6"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -5301,48 +4946,18 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -5353,48 +4968,20 @@
       <c r="W34" s="6"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
@@ -5405,57 +4992,23 @@
       <c r="W35" s="6"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -5463,177 +5016,73 @@
       <c r="W36" s="6"/>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q37" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
-      <c r="T37" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="T37" s="10"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>190</v>
-      </c>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -5647,49 +5096,61 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF4CC2A-428C-46C6-BFCF-187F6F720F99}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D27F130-26F8-4367-9409-32A7CE9196FF}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" activeCellId="1" sqref="A3:XFD3 A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5698,43 +5159,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5743,7 +5171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAB15BE-CE40-4A17-B637-431FD1EBDFAC}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -5754,41 +5182,41 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5797,16 +5225,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -5815,16 +5243,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -5833,16 +5261,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -5851,16 +5279,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -5869,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -5881,7 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D4C09B-621A-4F3A-93FB-8F19F85ED90E}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -5892,46 +5320,46 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5943,18 +5371,18 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -5966,18 +5394,18 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -5992,15 +5420,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -6015,15 +5443,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -6035,18 +5463,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -6058,18 +5486,18 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -6081,18 +5509,18 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -6104,18 +5532,18 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -6127,18 +5555,18 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -6150,18 +5578,18 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -6174,15 +5602,15 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -6195,721 +5623,8 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2C4D46-D32D-4C79-BB09-DB2883545269}">
-  <sheetPr>
-    <tabColor rgb="FFEE0000"/>
-  </sheetPr>
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" activeCellId="4" sqref="G2 G9 G16 G17 G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15">
-      <c r="A11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15">
-      <c r="A16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="15">
-      <c r="A17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="15">
-      <c r="A18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15">
-      <c r="A19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" ht="15">
-      <c r="A20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15">
-      <c r="A22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15">
-      <c r="A23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15">
-      <c r="A24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" ht="15">
-      <c r="A25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="15">
-      <c r="A26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="15">
-      <c r="A27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" ht="15">
-      <c r="A28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" ht="15">
-      <c r="A29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
